--- a/Code/Results/Cases/Case_4_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_205/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.040615773811397</v>
+        <v>1.075127692472976</v>
       </c>
       <c r="D2">
-        <v>1.047915420845557</v>
+        <v>1.068859061594275</v>
       </c>
       <c r="E2">
-        <v>1.05709709537013</v>
+        <v>1.088373604859081</v>
       </c>
       <c r="F2">
-        <v>1.061423952531935</v>
+        <v>1.09453421040821</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.059817967383234</v>
+        <v>1.05657694330282</v>
       </c>
       <c r="J2">
-        <v>1.061646009543238</v>
+        <v>1.080033712190591</v>
       </c>
       <c r="K2">
-        <v>1.058745263582609</v>
+        <v>1.071563117270248</v>
       </c>
       <c r="L2">
-        <v>1.067814412344805</v>
+        <v>1.091026459752524</v>
       </c>
       <c r="M2">
-        <v>1.072089079329145</v>
+        <v>1.097171310500737</v>
       </c>
       <c r="N2">
-        <v>1.063153668649289</v>
+        <v>1.0815674839435</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.047437644760357</v>
+        <v>1.076498757581475</v>
       </c>
       <c r="D3">
-        <v>1.053064775813931</v>
+        <v>1.069899994862129</v>
       </c>
       <c r="E3">
-        <v>1.06359392490255</v>
+        <v>1.089731779934121</v>
       </c>
       <c r="F3">
-        <v>1.068166374687679</v>
+        <v>1.095953138768919</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.062441789424392</v>
+        <v>1.057029543662617</v>
       </c>
       <c r="J3">
-        <v>1.066713647361391</v>
+        <v>1.081062139016232</v>
       </c>
       <c r="K3">
-        <v>1.063060885362335</v>
+        <v>1.072419551209251</v>
       </c>
       <c r="L3">
-        <v>1.073472975500899</v>
+        <v>1.092203082345252</v>
       </c>
       <c r="M3">
-        <v>1.077995472643833</v>
+        <v>1.098409689955691</v>
       </c>
       <c r="N3">
-        <v>1.068228503094409</v>
+        <v>1.082597371253196</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.051732068951805</v>
+        <v>1.077385117009685</v>
       </c>
       <c r="D4">
-        <v>1.056308504210172</v>
+        <v>1.07057272828931</v>
       </c>
       <c r="E4">
-        <v>1.067688940968605</v>
+        <v>1.090610145486834</v>
       </c>
       <c r="F4">
-        <v>1.072417089762441</v>
+        <v>1.096870926463714</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.064082884395035</v>
+        <v>1.057320741832275</v>
       </c>
       <c r="J4">
-        <v>1.069899048069213</v>
+        <v>1.081726279981585</v>
       </c>
       <c r="K4">
-        <v>1.06577170799798</v>
+        <v>1.072972295338066</v>
       </c>
       <c r="L4">
-        <v>1.077033697338491</v>
+        <v>1.092963423344583</v>
       </c>
       <c r="M4">
-        <v>1.081713536153735</v>
+        <v>1.099210112239794</v>
       </c>
       <c r="N4">
-        <v>1.071418427436607</v>
+        <v>1.083262455374898</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.053510223484028</v>
+        <v>1.077757552791121</v>
       </c>
       <c r="D5">
-        <v>1.057652045120582</v>
+        <v>1.070855351786996</v>
       </c>
       <c r="E5">
-        <v>1.069385729437702</v>
+        <v>1.090979303111295</v>
       </c>
       <c r="F5">
-        <v>1.074178614259539</v>
+        <v>1.097256683877657</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.06475980162295</v>
+        <v>1.057442764624727</v>
       </c>
       <c r="J5">
-        <v>1.071216820126497</v>
+        <v>1.082005172091881</v>
       </c>
       <c r="K5">
-        <v>1.066892682720788</v>
+        <v>1.073204330216882</v>
       </c>
       <c r="L5">
-        <v>1.078507673147038</v>
+        <v>1.093282831917034</v>
       </c>
       <c r="M5">
-        <v>1.083252980676696</v>
+        <v>1.099546399999443</v>
       </c>
       <c r="N5">
-        <v>1.072738070881363</v>
+        <v>1.083541743543979</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.053807227469885</v>
+        <v>1.077820075403443</v>
       </c>
       <c r="D6">
-        <v>1.0578764794068</v>
+        <v>1.070902794238544</v>
       </c>
       <c r="E6">
-        <v>1.069669212183561</v>
+        <v>1.091041280126193</v>
       </c>
       <c r="F6">
-        <v>1.07447292564384</v>
+        <v>1.097321449643522</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.064872712620348</v>
+        <v>1.057463229558659</v>
       </c>
       <c r="J6">
-        <v>1.071436856098096</v>
+        <v>1.082051981058719</v>
       </c>
       <c r="K6">
-        <v>1.067079830241708</v>
+        <v>1.07324327010507</v>
       </c>
       <c r="L6">
-        <v>1.078753846625723</v>
+        <v>1.093336448124129</v>
       </c>
       <c r="M6">
-        <v>1.083510108160722</v>
+        <v>1.099602852002896</v>
       </c>
       <c r="N6">
-        <v>1.072958419329281</v>
+        <v>1.083588618984919</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.05175593385718</v>
+        <v>1.07739009425467</v>
       </c>
       <c r="D7">
-        <v>1.056326534462502</v>
+        <v>1.070576505475848</v>
       </c>
       <c r="E7">
-        <v>1.067711709156939</v>
+        <v>1.090615078605585</v>
       </c>
       <c r="F7">
-        <v>1.072440725721819</v>
+        <v>1.096876081284396</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.064091979746156</v>
+        <v>1.057322373864463</v>
       </c>
       <c r="J7">
-        <v>1.06991673882854</v>
+        <v>1.081730007776474</v>
       </c>
       <c r="K7">
-        <v>1.065786758680092</v>
+        <v>1.0729753971273</v>
       </c>
       <c r="L7">
-        <v>1.07705348137896</v>
+        <v>1.092967692231327</v>
       </c>
       <c r="M7">
-        <v>1.081734197595632</v>
+        <v>1.099214606552834</v>
       </c>
       <c r="N7">
-        <v>1.071436143318842</v>
+        <v>1.083266188463682</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.0429469700105</v>
+        <v>1.075591221073139</v>
       </c>
       <c r="D8">
-        <v>1.049674570468263</v>
+        <v>1.069211021266379</v>
       </c>
       <c r="E8">
-        <v>1.059316089004476</v>
+        <v>1.088832705056568</v>
       </c>
       <c r="F8">
-        <v>1.063726642551942</v>
+        <v>1.095013819672455</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.060716798054671</v>
+        <v>1.056730247313564</v>
       </c>
       <c r="J8">
-        <v>1.063378707266078</v>
+        <v>1.08038154911702</v>
       </c>
       <c r="K8">
-        <v>1.060221221088617</v>
+        <v>1.071852849945231</v>
       </c>
       <c r="L8">
-        <v>1.069748341415532</v>
+        <v>1.09142431668726</v>
       </c>
       <c r="M8">
-        <v>1.074107417760427</v>
+        <v>1.0975900136187</v>
       </c>
       <c r="N8">
-        <v>1.064888827001638</v>
+        <v>1.081915814838261</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.026435441593049</v>
+        <v>1.072414959582988</v>
       </c>
       <c r="D9">
-        <v>1.037227750653678</v>
+        <v>1.066798463001617</v>
       </c>
       <c r="E9">
-        <v>1.043623903300938</v>
+        <v>1.085688199619101</v>
       </c>
       <c r="F9">
-        <v>1.047446190333321</v>
+        <v>1.091729379372889</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.054306901036778</v>
+        <v>1.05567402564602</v>
       </c>
       <c r="J9">
-        <v>1.05108803095754</v>
+        <v>1.07799513738987</v>
       </c>
       <c r="K9">
-        <v>1.049744387561423</v>
+        <v>1.069863740374791</v>
       </c>
       <c r="L9">
-        <v>1.05604675319612</v>
+        <v>1.088696775153828</v>
       </c>
       <c r="M9">
-        <v>1.059813686657372</v>
+        <v>1.094720271441916</v>
       </c>
       <c r="N9">
-        <v>1.052580696522982</v>
+        <v>1.079526014132734</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.014651560558353</v>
+        <v>1.070292851921813</v>
       </c>
       <c r="D10">
-        <v>1.028365874806921</v>
+        <v>1.065185616854371</v>
       </c>
       <c r="E10">
-        <v>1.032459048077451</v>
+        <v>1.083589100593731</v>
       </c>
       <c r="F10">
-        <v>1.035867109741498</v>
+        <v>1.089537540343751</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.049679036550535</v>
+        <v>1.054961158984063</v>
       </c>
       <c r="J10">
-        <v>1.042295691757324</v>
+        <v>1.076397095226221</v>
       </c>
       <c r="K10">
-        <v>1.042241189943559</v>
+        <v>1.06853008011757</v>
       </c>
       <c r="L10">
-        <v>1.046265974030534</v>
+        <v>1.086872862820805</v>
       </c>
       <c r="M10">
-        <v>1.049617623947256</v>
+        <v>1.092802162743129</v>
       </c>
       <c r="N10">
-        <v>1.043775871192607</v>
+        <v>1.077925702565915</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.009336275317399</v>
+        <v>1.069372800741864</v>
       </c>
       <c r="D11">
-        <v>1.024375224177107</v>
+        <v>1.064486136859294</v>
       </c>
       <c r="E11">
-        <v>1.027432125318248</v>
+        <v>1.082679456037654</v>
       </c>
       <c r="F11">
-        <v>1.030654605755178</v>
+        <v>1.088587865758225</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.047579794764824</v>
+        <v>1.054650389192339</v>
       </c>
       <c r="J11">
-        <v>1.038325746914721</v>
+        <v>1.075703394657807</v>
       </c>
       <c r="K11">
-        <v>1.038851648159018</v>
+        <v>1.067950753438492</v>
       </c>
       <c r="L11">
-        <v>1.041854613347955</v>
+        <v>1.086081720473937</v>
       </c>
       <c r="M11">
-        <v>1.045020684908274</v>
+        <v>1.091970373160463</v>
       </c>
       <c r="N11">
-        <v>1.039800288572968</v>
+        <v>1.077231016863125</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.007327192611465</v>
+        <v>1.069030872203519</v>
       </c>
       <c r="D12">
-        <v>1.022867976416614</v>
+        <v>1.064226149115673</v>
       </c>
       <c r="E12">
-        <v>1.025533507100232</v>
+        <v>1.082341460308267</v>
       </c>
       <c r="F12">
-        <v>1.028686024032267</v>
+        <v>1.088235019916171</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.046784631517264</v>
+        <v>1.054534638865354</v>
       </c>
       <c r="J12">
-        <v>1.036824657442277</v>
+        <v>1.075445458215577</v>
       </c>
       <c r="K12">
-        <v>1.037569795615743</v>
+        <v>1.067735285514212</v>
       </c>
       <c r="L12">
-        <v>1.04018734690036</v>
+        <v>1.085787643689582</v>
       </c>
       <c r="M12">
-        <v>1.043283535263698</v>
+        <v>1.091661219067853</v>
       </c>
       <c r="N12">
-        <v>1.038297067381295</v>
+        <v>1.076972714121561</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.007759768377394</v>
+        <v>1.069104225296899</v>
       </c>
       <c r="D13">
-        <v>1.023192447705648</v>
+        <v>1.064281925104956</v>
       </c>
       <c r="E13">
-        <v>1.025942230825744</v>
+        <v>1.082413966743546</v>
       </c>
       <c r="F13">
-        <v>1.029109803461884</v>
+        <v>1.08831071090342</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.046955912955436</v>
+        <v>1.054559482062231</v>
       </c>
       <c r="J13">
-        <v>1.037147879223093</v>
+        <v>1.075500798523067</v>
       </c>
       <c r="K13">
-        <v>1.037845819725068</v>
+        <v>1.067781516848481</v>
       </c>
       <c r="L13">
-        <v>1.040546317928352</v>
+        <v>1.085850733792323</v>
       </c>
       <c r="M13">
-        <v>1.043657541007314</v>
+        <v>1.091727542362695</v>
       </c>
       <c r="N13">
-        <v>1.038620748174114</v>
+        <v>1.077028133018636</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.009170930028998</v>
+        <v>1.069344540538193</v>
       </c>
       <c r="D14">
-        <v>1.024251155163196</v>
+        <v>1.064464649673577</v>
       </c>
       <c r="E14">
-        <v>1.027275840760829</v>
+        <v>1.082651519543957</v>
       </c>
       <c r="F14">
-        <v>1.030492559608261</v>
+        <v>1.088558701367104</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.047514387440662</v>
+        <v>1.054640827704225</v>
       </c>
       <c r="J14">
-        <v>1.038202218966492</v>
+        <v>1.075682078983996</v>
       </c>
       <c r="K14">
-        <v>1.0387461660043</v>
+        <v>1.067932948527903</v>
       </c>
       <c r="L14">
-        <v>1.041717395593675</v>
+        <v>1.086057416331719</v>
       </c>
       <c r="M14">
-        <v>1.044877710523329</v>
+        <v>1.091944822298414</v>
       </c>
       <c r="N14">
-        <v>1.039676585200883</v>
+        <v>1.077209670918612</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.010035699984996</v>
+        <v>1.069492582595087</v>
       </c>
       <c r="D15">
-        <v>1.024900094254348</v>
+        <v>1.06457720971758</v>
       </c>
       <c r="E15">
-        <v>1.028093282630868</v>
+        <v>1.082797868510895</v>
       </c>
       <c r="F15">
-        <v>1.031340142478721</v>
+        <v>1.088711483809306</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.047856405213365</v>
+        <v>1.054690905427363</v>
       </c>
       <c r="J15">
-        <v>1.038848259994299</v>
+        <v>1.075793736599621</v>
       </c>
       <c r="K15">
-        <v>1.039297820203554</v>
+        <v>1.068026213354676</v>
       </c>
       <c r="L15">
-        <v>1.042435062758075</v>
+        <v>1.086184732131829</v>
       </c>
       <c r="M15">
-        <v>1.045625496018439</v>
+        <v>1.092078670265306</v>
       </c>
       <c r="N15">
-        <v>1.040323543681052</v>
+        <v>1.077321487100859</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.014999605336635</v>
+        <v>1.070353887674973</v>
       </c>
       <c r="D16">
-        <v>1.028627332216044</v>
+        <v>1.065232015423989</v>
       </c>
       <c r="E16">
-        <v>1.032788408120083</v>
+        <v>1.083649455098746</v>
       </c>
       <c r="F16">
-        <v>1.036208647230404</v>
+        <v>1.089600554163786</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.049816257518268</v>
+        <v>1.054981739465352</v>
       </c>
       <c r="J16">
-        <v>1.04255556698761</v>
+        <v>1.07644309688743</v>
       </c>
       <c r="K16">
-        <v>1.042463039407642</v>
+        <v>1.068568489009296</v>
       </c>
       <c r="L16">
-        <v>1.046554845382551</v>
+        <v>1.08692533895092</v>
       </c>
       <c r="M16">
-        <v>1.049918683087499</v>
+        <v>1.092857339436798</v>
       </c>
       <c r="N16">
-        <v>1.044036115475527</v>
+        <v>1.077971769554759</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.018054499156332</v>
+        <v>1.070893845863157</v>
       </c>
       <c r="D17">
-        <v>1.030922988100633</v>
+        <v>1.065642458968587</v>
       </c>
       <c r="E17">
-        <v>1.035680344275107</v>
+        <v>1.084183436398682</v>
       </c>
       <c r="F17">
-        <v>1.039207610295152</v>
+        <v>1.090158081860708</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.051019365016695</v>
+        <v>1.055163609977436</v>
       </c>
       <c r="J17">
-        <v>1.044836123251837</v>
+        <v>1.076849955313528</v>
       </c>
       <c r="K17">
-        <v>1.04440971170167</v>
+        <v>1.068908148447045</v>
       </c>
       <c r="L17">
-        <v>1.049090410972867</v>
+        <v>1.087389530389636</v>
       </c>
       <c r="M17">
-        <v>1.052561421419494</v>
+        <v>1.093345443827602</v>
       </c>
       <c r="N17">
-        <v>1.046319910391233</v>
+        <v>1.07837920576649</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.019816040266759</v>
+        <v>1.071208682356644</v>
       </c>
       <c r="D18">
-        <v>1.032247343374371</v>
+        <v>1.065881757170369</v>
       </c>
       <c r="E18">
-        <v>1.037348773259847</v>
+        <v>1.084494829443595</v>
       </c>
       <c r="F18">
-        <v>1.040937873289074</v>
+        <v>1.090483221392172</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.051711997418518</v>
+        <v>1.055269490083759</v>
       </c>
       <c r="J18">
-        <v>1.04615077272968</v>
+        <v>1.07708710155853</v>
       </c>
       <c r="K18">
-        <v>1.045531730808414</v>
+        <v>1.069106088454468</v>
       </c>
       <c r="L18">
-        <v>1.050552523408259</v>
+        <v>1.087660152919695</v>
       </c>
       <c r="M18">
-        <v>1.054085496665393</v>
+        <v>1.093630027940052</v>
       </c>
       <c r="N18">
-        <v>1.047636426822127</v>
+        <v>1.07861668878636</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.02041331174344</v>
+        <v>1.071316014639393</v>
       </c>
       <c r="D19">
-        <v>1.032696481501827</v>
+        <v>1.065963333699183</v>
       </c>
       <c r="E19">
-        <v>1.037914616164692</v>
+        <v>1.084600994833811</v>
       </c>
       <c r="F19">
-        <v>1.041524702149664</v>
+        <v>1.090594076068327</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.051946651302127</v>
+        <v>1.055305558281039</v>
       </c>
       <c r="J19">
-        <v>1.046596452423887</v>
+        <v>1.077167934030077</v>
       </c>
       <c r="K19">
-        <v>1.04591207889494</v>
+        <v>1.069173550858052</v>
       </c>
       <c r="L19">
-        <v>1.051048272814641</v>
+        <v>1.087752405873659</v>
       </c>
       <c r="M19">
-        <v>1.054602283084918</v>
+        <v>1.093727043739508</v>
       </c>
       <c r="N19">
-        <v>1.04808273943262</v>
+        <v>1.078697636049289</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.017728859517961</v>
+        <v>1.070835925084639</v>
       </c>
       <c r="D20">
-        <v>1.030678215522871</v>
+        <v>1.065598433309947</v>
       </c>
       <c r="E20">
-        <v>1.035371985911188</v>
+        <v>1.084126152455025</v>
       </c>
       <c r="F20">
-        <v>1.038887830949173</v>
+        <v>1.090098270344117</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.050891233736792</v>
+        <v>1.055144117889991</v>
       </c>
       <c r="J20">
-        <v>1.044593064465843</v>
+        <v>1.076806320599746</v>
       </c>
       <c r="K20">
-        <v>1.044202254223137</v>
+        <v>1.068871724598492</v>
       </c>
       <c r="L20">
-        <v>1.04882012583449</v>
+        <v>1.087339740778701</v>
       </c>
       <c r="M20">
-        <v>1.052279695061009</v>
+        <v>1.09329308718201</v>
       </c>
       <c r="N20">
-        <v>1.046076506433884</v>
+        <v>1.078335509086409</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.008756361314442</v>
+        <v>1.06927377871894</v>
       </c>
       <c r="D21">
-        <v>1.023940097057533</v>
+        <v>1.064410846555326</v>
       </c>
       <c r="E21">
-        <v>1.026884013896629</v>
+        <v>1.082581569330873</v>
       </c>
       <c r="F21">
-        <v>1.030086289682217</v>
+        <v>1.088485677004821</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.047350365411438</v>
+        <v>1.054616882195802</v>
       </c>
       <c r="J21">
-        <v>1.037892490400745</v>
+        <v>1.075628703759285</v>
       </c>
       <c r="K21">
-        <v>1.038481681219253</v>
+        <v>1.067888363434271</v>
       </c>
       <c r="L21">
-        <v>1.041373353500838</v>
+        <v>1.085996559344396</v>
       </c>
       <c r="M21">
-        <v>1.044519239101528</v>
+        <v>1.091880844067174</v>
       </c>
       <c r="N21">
-        <v>1.039366416785046</v>
+        <v>1.07715621989496</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.002912321021799</v>
+        <v>1.068290547810686</v>
       </c>
       <c r="D22">
-        <v>1.019558160343404</v>
+        <v>1.06366317991909</v>
       </c>
       <c r="E22">
-        <v>1.021364197946712</v>
+        <v>1.08160977098204</v>
       </c>
       <c r="F22">
-        <v>1.024363302532176</v>
+        <v>1.087471226707691</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.045034281666482</v>
+        <v>1.054283555495123</v>
       </c>
       <c r="J22">
-        <v>1.033525219318813</v>
+        <v>1.074886753116549</v>
       </c>
       <c r="K22">
-        <v>1.034751874397131</v>
+        <v>1.067268462429615</v>
       </c>
       <c r="L22">
-        <v>1.03652398308989</v>
+        <v>1.085150823144563</v>
       </c>
       <c r="M22">
-        <v>1.039467090122846</v>
+        <v>1.09099180677679</v>
       </c>
       <c r="N22">
-        <v>1.034992943677246</v>
+        <v>1.076413215597209</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.006030585655526</v>
+        <v>1.068811878285125</v>
       </c>
       <c r="D23">
-        <v>1.021895583482991</v>
+        <v>1.064059626539835</v>
       </c>
       <c r="E23">
-        <v>1.024308617614085</v>
+        <v>1.08212500366627</v>
       </c>
       <c r="F23">
-        <v>1.027416032695887</v>
+        <v>1.088009059772704</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.046270990226963</v>
+        <v>1.054460432679504</v>
       </c>
       <c r="J23">
-        <v>1.035855759825525</v>
+        <v>1.075280222172581</v>
       </c>
       <c r="K23">
-        <v>1.036742348947839</v>
+        <v>1.067597238615188</v>
       </c>
       <c r="L23">
-        <v>1.039111392734315</v>
+        <v>1.085599281510516</v>
       </c>
       <c r="M23">
-        <v>1.042162554355993</v>
+        <v>1.091463208496839</v>
       </c>
       <c r="N23">
-        <v>1.037326793818793</v>
+        <v>1.076807243424432</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.017876064663347</v>
+        <v>1.070862097336961</v>
       </c>
       <c r="D24">
-        <v>1.030788862884224</v>
+        <v>1.065618326939178</v>
       </c>
       <c r="E24">
-        <v>1.035511376424977</v>
+        <v>1.084152036817008</v>
       </c>
       <c r="F24">
-        <v>1.03903238393851</v>
+        <v>1.090125296769576</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.050949158849306</v>
+        <v>1.055152926148974</v>
       </c>
       <c r="J24">
-        <v>1.044702940205866</v>
+        <v>1.076826037765663</v>
       </c>
       <c r="K24">
-        <v>1.044296036741279</v>
+        <v>1.068888183516383</v>
       </c>
       <c r="L24">
-        <v>1.048942307930993</v>
+        <v>1.087362238969823</v>
       </c>
       <c r="M24">
-        <v>1.052407048643342</v>
+        <v>1.093316745263681</v>
       </c>
       <c r="N24">
-        <v>1.046186538210061</v>
+        <v>1.078355254252962</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.03083202747108</v>
+        <v>1.073236889090056</v>
       </c>
       <c r="D25">
-        <v>1.040538893168401</v>
+        <v>1.067422943145514</v>
       </c>
       <c r="E25">
-        <v>1.0477967722046</v>
+        <v>1.08650159804454</v>
       </c>
       <c r="F25">
-        <v>1.051774721282795</v>
+        <v>1.092578856391844</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.056023040854095</v>
+        <v>1.055948613660119</v>
       </c>
       <c r="J25">
-        <v>1.054364530029721</v>
+        <v>1.078613318467201</v>
       </c>
       <c r="K25">
-        <v>1.052538879081761</v>
+        <v>1.070379297962014</v>
       </c>
       <c r="L25">
-        <v>1.059695798146212</v>
+        <v>1.089402871650172</v>
       </c>
       <c r="M25">
-        <v>1.0636191567591</v>
+        <v>1.095463022936175</v>
       </c>
       <c r="N25">
-        <v>1.055861848599665</v>
+        <v>1.080145073098101</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_205/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_205/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.075127692472976</v>
+        <v>1.040615773811395</v>
       </c>
       <c r="D2">
-        <v>1.068859061594275</v>
+        <v>1.047915420845557</v>
       </c>
       <c r="E2">
-        <v>1.088373604859081</v>
+        <v>1.057097095370129</v>
       </c>
       <c r="F2">
-        <v>1.09453421040821</v>
+        <v>1.061423952531934</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05657694330282</v>
+        <v>1.059817967383234</v>
       </c>
       <c r="J2">
-        <v>1.080033712190591</v>
+        <v>1.061646009543237</v>
       </c>
       <c r="K2">
-        <v>1.071563117270248</v>
+        <v>1.058745263582608</v>
       </c>
       <c r="L2">
-        <v>1.091026459752524</v>
+        <v>1.067814412344804</v>
       </c>
       <c r="M2">
-        <v>1.097171310500737</v>
+        <v>1.072089079329144</v>
       </c>
       <c r="N2">
-        <v>1.0815674839435</v>
+        <v>1.063153668649287</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.076498757581475</v>
+        <v>1.047437644760357</v>
       </c>
       <c r="D3">
-        <v>1.069899994862129</v>
+        <v>1.053064775813932</v>
       </c>
       <c r="E3">
-        <v>1.089731779934121</v>
+        <v>1.06359392490255</v>
       </c>
       <c r="F3">
-        <v>1.095953138768919</v>
+        <v>1.068166374687679</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.057029543662617</v>
+        <v>1.062441789424392</v>
       </c>
       <c r="J3">
-        <v>1.081062139016232</v>
+        <v>1.066713647361391</v>
       </c>
       <c r="K3">
-        <v>1.072419551209251</v>
+        <v>1.063060885362336</v>
       </c>
       <c r="L3">
-        <v>1.092203082345252</v>
+        <v>1.073472975500899</v>
       </c>
       <c r="M3">
-        <v>1.098409689955691</v>
+        <v>1.077995472643833</v>
       </c>
       <c r="N3">
-        <v>1.082597371253196</v>
+        <v>1.06822850309441</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.077385117009685</v>
+        <v>1.051732068951804</v>
       </c>
       <c r="D4">
-        <v>1.07057272828931</v>
+        <v>1.056308504210171</v>
       </c>
       <c r="E4">
-        <v>1.090610145486834</v>
+        <v>1.067688940968604</v>
       </c>
       <c r="F4">
-        <v>1.096870926463714</v>
+        <v>1.07241708976244</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057320741832275</v>
+        <v>1.064082884395034</v>
       </c>
       <c r="J4">
-        <v>1.081726279981585</v>
+        <v>1.069899048069212</v>
       </c>
       <c r="K4">
-        <v>1.072972295338066</v>
+        <v>1.06577170799798</v>
       </c>
       <c r="L4">
-        <v>1.092963423344583</v>
+        <v>1.07703369733849</v>
       </c>
       <c r="M4">
-        <v>1.099210112239794</v>
+        <v>1.081713536153734</v>
       </c>
       <c r="N4">
-        <v>1.083262455374898</v>
+        <v>1.071418427436606</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.077757552791121</v>
+        <v>1.053510223484027</v>
       </c>
       <c r="D5">
-        <v>1.070855351786996</v>
+        <v>1.057652045120582</v>
       </c>
       <c r="E5">
-        <v>1.090979303111295</v>
+        <v>1.069385729437701</v>
       </c>
       <c r="F5">
-        <v>1.097256683877657</v>
+        <v>1.074178614259538</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057442764624727</v>
+        <v>1.06475980162295</v>
       </c>
       <c r="J5">
-        <v>1.082005172091881</v>
+        <v>1.071216820126496</v>
       </c>
       <c r="K5">
-        <v>1.073204330216882</v>
+        <v>1.066892682720788</v>
       </c>
       <c r="L5">
-        <v>1.093282831917034</v>
+        <v>1.078507673147038</v>
       </c>
       <c r="M5">
-        <v>1.099546399999443</v>
+        <v>1.083252980676695</v>
       </c>
       <c r="N5">
-        <v>1.083541743543979</v>
+        <v>1.072738070881362</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.077820075403443</v>
+        <v>1.053807227469883</v>
       </c>
       <c r="D6">
-        <v>1.070902794238544</v>
+        <v>1.057876479406798</v>
       </c>
       <c r="E6">
-        <v>1.091041280126193</v>
+        <v>1.069669212183559</v>
       </c>
       <c r="F6">
-        <v>1.097321449643522</v>
+        <v>1.074472925643838</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057463229558659</v>
+        <v>1.064872712620347</v>
       </c>
       <c r="J6">
-        <v>1.082051981058719</v>
+        <v>1.071436856098095</v>
       </c>
       <c r="K6">
-        <v>1.07324327010507</v>
+        <v>1.067079830241706</v>
       </c>
       <c r="L6">
-        <v>1.093336448124129</v>
+        <v>1.078753846625721</v>
       </c>
       <c r="M6">
-        <v>1.099602852002896</v>
+        <v>1.08351010816072</v>
       </c>
       <c r="N6">
-        <v>1.083588618984919</v>
+        <v>1.072958419329279</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.07739009425467</v>
+        <v>1.05175593385718</v>
       </c>
       <c r="D7">
-        <v>1.070576505475848</v>
+        <v>1.056326534462502</v>
       </c>
       <c r="E7">
-        <v>1.090615078605585</v>
+        <v>1.067711709156939</v>
       </c>
       <c r="F7">
-        <v>1.096876081284396</v>
+        <v>1.072440725721819</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057322373864463</v>
+        <v>1.064091979746156</v>
       </c>
       <c r="J7">
-        <v>1.081730007776474</v>
+        <v>1.06991673882854</v>
       </c>
       <c r="K7">
-        <v>1.0729753971273</v>
+        <v>1.065786758680092</v>
       </c>
       <c r="L7">
-        <v>1.092967692231327</v>
+        <v>1.07705348137896</v>
       </c>
       <c r="M7">
-        <v>1.099214606552834</v>
+        <v>1.081734197595631</v>
       </c>
       <c r="N7">
-        <v>1.083266188463682</v>
+        <v>1.071436143318842</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.075591221073139</v>
+        <v>1.042946970010503</v>
       </c>
       <c r="D8">
-        <v>1.069211021266379</v>
+        <v>1.049674570468265</v>
       </c>
       <c r="E8">
-        <v>1.088832705056568</v>
+        <v>1.059316089004479</v>
       </c>
       <c r="F8">
-        <v>1.095013819672455</v>
+        <v>1.063726642551945</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056730247313564</v>
+        <v>1.060716798054672</v>
       </c>
       <c r="J8">
-        <v>1.08038154911702</v>
+        <v>1.063378707266081</v>
       </c>
       <c r="K8">
-        <v>1.071852849945231</v>
+        <v>1.060221221088619</v>
       </c>
       <c r="L8">
-        <v>1.09142431668726</v>
+        <v>1.069748341415535</v>
       </c>
       <c r="M8">
-        <v>1.0975900136187</v>
+        <v>1.07410741776043</v>
       </c>
       <c r="N8">
-        <v>1.081915814838261</v>
+        <v>1.064888827001641</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.072414959582988</v>
+        <v>1.026435441593047</v>
       </c>
       <c r="D9">
-        <v>1.066798463001617</v>
+        <v>1.037227750653676</v>
       </c>
       <c r="E9">
-        <v>1.085688199619101</v>
+        <v>1.043623903300936</v>
       </c>
       <c r="F9">
-        <v>1.091729379372889</v>
+        <v>1.047446190333319</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.05567402564602</v>
+        <v>1.054306901036777</v>
       </c>
       <c r="J9">
-        <v>1.07799513738987</v>
+        <v>1.051088030957538</v>
       </c>
       <c r="K9">
-        <v>1.069863740374791</v>
+        <v>1.049744387561421</v>
       </c>
       <c r="L9">
-        <v>1.088696775153828</v>
+        <v>1.056046753196117</v>
       </c>
       <c r="M9">
-        <v>1.094720271441916</v>
+        <v>1.05981368665737</v>
       </c>
       <c r="N9">
-        <v>1.079526014132734</v>
+        <v>1.05258069652298</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.070292851921813</v>
+        <v>1.014651560558353</v>
       </c>
       <c r="D10">
-        <v>1.065185616854371</v>
+        <v>1.02836587480692</v>
       </c>
       <c r="E10">
-        <v>1.083589100593731</v>
+        <v>1.03245904807745</v>
       </c>
       <c r="F10">
-        <v>1.089537540343751</v>
+        <v>1.035867109741497</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054961158984063</v>
+        <v>1.049679036550535</v>
       </c>
       <c r="J10">
-        <v>1.076397095226221</v>
+        <v>1.042295691757323</v>
       </c>
       <c r="K10">
-        <v>1.06853008011757</v>
+        <v>1.042241189943559</v>
       </c>
       <c r="L10">
-        <v>1.086872862820805</v>
+        <v>1.046265974030533</v>
       </c>
       <c r="M10">
-        <v>1.092802162743129</v>
+        <v>1.049617623947255</v>
       </c>
       <c r="N10">
-        <v>1.077925702565915</v>
+        <v>1.043775871192605</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.069372800741864</v>
+        <v>1.009336275317401</v>
       </c>
       <c r="D11">
-        <v>1.064486136859294</v>
+        <v>1.024375224177108</v>
       </c>
       <c r="E11">
-        <v>1.082679456037654</v>
+        <v>1.027432125318249</v>
       </c>
       <c r="F11">
-        <v>1.088587865758225</v>
+        <v>1.03065460575518</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054650389192339</v>
+        <v>1.047579794764825</v>
       </c>
       <c r="J11">
-        <v>1.075703394657807</v>
+        <v>1.038325746914722</v>
       </c>
       <c r="K11">
-        <v>1.067950753438492</v>
+        <v>1.038851648159019</v>
       </c>
       <c r="L11">
-        <v>1.086081720473937</v>
+        <v>1.041854613347956</v>
       </c>
       <c r="M11">
-        <v>1.091970373160463</v>
+        <v>1.045020684908276</v>
       </c>
       <c r="N11">
-        <v>1.077231016863125</v>
+        <v>1.039800288572969</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.069030872203519</v>
+        <v>1.007327192611464</v>
       </c>
       <c r="D12">
-        <v>1.064226149115673</v>
+        <v>1.022867976416613</v>
       </c>
       <c r="E12">
-        <v>1.082341460308267</v>
+        <v>1.025533507100231</v>
       </c>
       <c r="F12">
-        <v>1.088235019916171</v>
+        <v>1.028686024032267</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054534638865354</v>
+        <v>1.046784631517264</v>
       </c>
       <c r="J12">
-        <v>1.075445458215577</v>
+        <v>1.036824657442276</v>
       </c>
       <c r="K12">
-        <v>1.067735285514212</v>
+        <v>1.037569795615742</v>
       </c>
       <c r="L12">
-        <v>1.085787643689582</v>
+        <v>1.040187346900359</v>
       </c>
       <c r="M12">
-        <v>1.091661219067853</v>
+        <v>1.043283535263696</v>
       </c>
       <c r="N12">
-        <v>1.076972714121561</v>
+        <v>1.038297067381294</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.069104225296899</v>
+        <v>1.007759768377394</v>
       </c>
       <c r="D13">
-        <v>1.064281925104956</v>
+        <v>1.023192447705649</v>
       </c>
       <c r="E13">
-        <v>1.082413966743546</v>
+        <v>1.025942230825745</v>
       </c>
       <c r="F13">
-        <v>1.08831071090342</v>
+        <v>1.029109803461884</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054559482062231</v>
+        <v>1.046955912955436</v>
       </c>
       <c r="J13">
-        <v>1.075500798523067</v>
+        <v>1.037147879223093</v>
       </c>
       <c r="K13">
-        <v>1.067781516848481</v>
+        <v>1.037845819725069</v>
       </c>
       <c r="L13">
-        <v>1.085850733792323</v>
+        <v>1.040546317928352</v>
       </c>
       <c r="M13">
-        <v>1.091727542362695</v>
+        <v>1.043657541007314</v>
       </c>
       <c r="N13">
-        <v>1.077028133018636</v>
+        <v>1.038620748174115</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.069344540538193</v>
+        <v>1.009170930028999</v>
       </c>
       <c r="D14">
-        <v>1.064464649673577</v>
+        <v>1.024251155163197</v>
       </c>
       <c r="E14">
-        <v>1.082651519543957</v>
+        <v>1.02727584076083</v>
       </c>
       <c r="F14">
-        <v>1.088558701367104</v>
+        <v>1.030492559608262</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.054640827704225</v>
+        <v>1.047514387440662</v>
       </c>
       <c r="J14">
-        <v>1.075682078983996</v>
+        <v>1.038202218966492</v>
       </c>
       <c r="K14">
-        <v>1.067932948527903</v>
+        <v>1.038746166004301</v>
       </c>
       <c r="L14">
-        <v>1.086057416331719</v>
+        <v>1.041717395593676</v>
       </c>
       <c r="M14">
-        <v>1.091944822298414</v>
+        <v>1.04487771052333</v>
       </c>
       <c r="N14">
-        <v>1.077209670918612</v>
+        <v>1.039676585200884</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.069492582595087</v>
+        <v>1.010035699984996</v>
       </c>
       <c r="D15">
-        <v>1.06457720971758</v>
+        <v>1.024900094254348</v>
       </c>
       <c r="E15">
-        <v>1.082797868510895</v>
+        <v>1.028093282630868</v>
       </c>
       <c r="F15">
-        <v>1.088711483809306</v>
+        <v>1.03134014247872</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054690905427363</v>
+        <v>1.047856405213364</v>
       </c>
       <c r="J15">
-        <v>1.075793736599621</v>
+        <v>1.038848259994299</v>
       </c>
       <c r="K15">
-        <v>1.068026213354676</v>
+        <v>1.039297820203554</v>
       </c>
       <c r="L15">
-        <v>1.086184732131829</v>
+        <v>1.042435062758075</v>
       </c>
       <c r="M15">
-        <v>1.092078670265306</v>
+        <v>1.045625496018438</v>
       </c>
       <c r="N15">
-        <v>1.077321487100859</v>
+        <v>1.040323543681051</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.070353887674973</v>
+        <v>1.014999605336635</v>
       </c>
       <c r="D16">
-        <v>1.065232015423989</v>
+        <v>1.028627332216044</v>
       </c>
       <c r="E16">
-        <v>1.083649455098746</v>
+        <v>1.032788408120082</v>
       </c>
       <c r="F16">
-        <v>1.089600554163786</v>
+        <v>1.036208647230404</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054981739465352</v>
+        <v>1.049816257518268</v>
       </c>
       <c r="J16">
-        <v>1.07644309688743</v>
+        <v>1.042555566987609</v>
       </c>
       <c r="K16">
-        <v>1.068568489009296</v>
+        <v>1.042463039407642</v>
       </c>
       <c r="L16">
-        <v>1.08692533895092</v>
+        <v>1.04655484538255</v>
       </c>
       <c r="M16">
-        <v>1.092857339436798</v>
+        <v>1.049918683087499</v>
       </c>
       <c r="N16">
-        <v>1.077971769554759</v>
+        <v>1.044036115475527</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.070893845863157</v>
+        <v>1.018054499156333</v>
       </c>
       <c r="D17">
-        <v>1.065642458968587</v>
+        <v>1.030922988100634</v>
       </c>
       <c r="E17">
-        <v>1.084183436398682</v>
+        <v>1.035680344275109</v>
       </c>
       <c r="F17">
-        <v>1.090158081860708</v>
+        <v>1.039207610295153</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055163609977436</v>
+        <v>1.051019365016695</v>
       </c>
       <c r="J17">
-        <v>1.076849955313528</v>
+        <v>1.044836123251838</v>
       </c>
       <c r="K17">
-        <v>1.068908148447045</v>
+        <v>1.044409711701671</v>
       </c>
       <c r="L17">
-        <v>1.087389530389636</v>
+        <v>1.049090410972868</v>
       </c>
       <c r="M17">
-        <v>1.093345443827602</v>
+        <v>1.052561421419495</v>
       </c>
       <c r="N17">
-        <v>1.07837920576649</v>
+        <v>1.046319910391234</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.071208682356644</v>
+        <v>1.01981604026676</v>
       </c>
       <c r="D18">
-        <v>1.065881757170369</v>
+        <v>1.032247343374371</v>
       </c>
       <c r="E18">
-        <v>1.084494829443595</v>
+        <v>1.037348773259847</v>
       </c>
       <c r="F18">
-        <v>1.090483221392172</v>
+        <v>1.040937873289075</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055269490083759</v>
+        <v>1.051711997418518</v>
       </c>
       <c r="J18">
-        <v>1.07708710155853</v>
+        <v>1.04615077272968</v>
       </c>
       <c r="K18">
-        <v>1.069106088454468</v>
+        <v>1.045531730808414</v>
       </c>
       <c r="L18">
-        <v>1.087660152919695</v>
+        <v>1.050552523408259</v>
       </c>
       <c r="M18">
-        <v>1.093630027940052</v>
+        <v>1.054085496665393</v>
       </c>
       <c r="N18">
-        <v>1.07861668878636</v>
+        <v>1.047636426822127</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.071316014639393</v>
+        <v>1.020413311743441</v>
       </c>
       <c r="D19">
-        <v>1.065963333699183</v>
+        <v>1.032696481501828</v>
       </c>
       <c r="E19">
-        <v>1.084600994833811</v>
+        <v>1.037914616164694</v>
       </c>
       <c r="F19">
-        <v>1.090594076068327</v>
+        <v>1.041524702149667</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055305558281039</v>
+        <v>1.051946651302128</v>
       </c>
       <c r="J19">
-        <v>1.077167934030077</v>
+        <v>1.046596452423888</v>
       </c>
       <c r="K19">
-        <v>1.069173550858052</v>
+        <v>1.045912078894941</v>
       </c>
       <c r="L19">
-        <v>1.087752405873659</v>
+        <v>1.051048272814642</v>
       </c>
       <c r="M19">
-        <v>1.093727043739508</v>
+        <v>1.05460228308492</v>
       </c>
       <c r="N19">
-        <v>1.078697636049289</v>
+        <v>1.048082739432622</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.070835925084639</v>
+        <v>1.017728859517962</v>
       </c>
       <c r="D20">
-        <v>1.065598433309947</v>
+        <v>1.030678215522872</v>
       </c>
       <c r="E20">
-        <v>1.084126152455025</v>
+        <v>1.035371985911189</v>
       </c>
       <c r="F20">
-        <v>1.090098270344117</v>
+        <v>1.038887830949174</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055144117889991</v>
+        <v>1.050891233736792</v>
       </c>
       <c r="J20">
-        <v>1.076806320599746</v>
+        <v>1.044593064465843</v>
       </c>
       <c r="K20">
-        <v>1.068871724598492</v>
+        <v>1.044202254223137</v>
       </c>
       <c r="L20">
-        <v>1.087339740778701</v>
+        <v>1.048820125834491</v>
       </c>
       <c r="M20">
-        <v>1.09329308718201</v>
+        <v>1.05227969506101</v>
       </c>
       <c r="N20">
-        <v>1.078335509086409</v>
+        <v>1.046076506433884</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.06927377871894</v>
+        <v>1.008756361314442</v>
       </c>
       <c r="D21">
-        <v>1.064410846555326</v>
+        <v>1.023940097057533</v>
       </c>
       <c r="E21">
-        <v>1.082581569330873</v>
+        <v>1.026884013896629</v>
       </c>
       <c r="F21">
-        <v>1.088485677004821</v>
+        <v>1.030086289682218</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054616882195802</v>
+        <v>1.047350365411438</v>
       </c>
       <c r="J21">
-        <v>1.075628703759285</v>
+        <v>1.037892490400745</v>
       </c>
       <c r="K21">
-        <v>1.067888363434271</v>
+        <v>1.038481681219253</v>
       </c>
       <c r="L21">
-        <v>1.085996559344396</v>
+        <v>1.041373353500839</v>
       </c>
       <c r="M21">
-        <v>1.091880844067174</v>
+        <v>1.044519239101528</v>
       </c>
       <c r="N21">
-        <v>1.07715621989496</v>
+        <v>1.039366416785047</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.068290547810686</v>
+        <v>1.002912321021799</v>
       </c>
       <c r="D22">
-        <v>1.06366317991909</v>
+        <v>1.019558160343403</v>
       </c>
       <c r="E22">
-        <v>1.08160977098204</v>
+        <v>1.021364197946711</v>
       </c>
       <c r="F22">
-        <v>1.087471226707691</v>
+        <v>1.024363302532174</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054283555495123</v>
+        <v>1.045034281666481</v>
       </c>
       <c r="J22">
-        <v>1.074886753116549</v>
+        <v>1.033525219318812</v>
       </c>
       <c r="K22">
-        <v>1.067268462429615</v>
+        <v>1.03475187439713</v>
       </c>
       <c r="L22">
-        <v>1.085150823144563</v>
+        <v>1.036523983089888</v>
       </c>
       <c r="M22">
-        <v>1.09099180677679</v>
+        <v>1.039467090122845</v>
       </c>
       <c r="N22">
-        <v>1.076413215597209</v>
+        <v>1.034992943677245</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.068811878285125</v>
+        <v>1.006030585655528</v>
       </c>
       <c r="D23">
-        <v>1.064059626539835</v>
+        <v>1.021895583482993</v>
       </c>
       <c r="E23">
-        <v>1.08212500366627</v>
+        <v>1.024308617614087</v>
       </c>
       <c r="F23">
-        <v>1.088009059772704</v>
+        <v>1.027416032695889</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054460432679504</v>
+        <v>1.046270990226963</v>
       </c>
       <c r="J23">
-        <v>1.075280222172581</v>
+        <v>1.035855759825526</v>
       </c>
       <c r="K23">
-        <v>1.067597238615188</v>
+        <v>1.03674234894784</v>
       </c>
       <c r="L23">
-        <v>1.085599281510516</v>
+        <v>1.039111392734317</v>
       </c>
       <c r="M23">
-        <v>1.091463208496839</v>
+        <v>1.042162554355995</v>
       </c>
       <c r="N23">
-        <v>1.076807243424432</v>
+        <v>1.037326793818795</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.070862097336961</v>
+        <v>1.017876064663346</v>
       </c>
       <c r="D24">
-        <v>1.065618326939178</v>
+        <v>1.030788862884223</v>
       </c>
       <c r="E24">
-        <v>1.084152036817008</v>
+        <v>1.035511376424975</v>
       </c>
       <c r="F24">
-        <v>1.090125296769576</v>
+        <v>1.039032383938509</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055152926148974</v>
+        <v>1.050949158849305</v>
       </c>
       <c r="J24">
-        <v>1.076826037765663</v>
+        <v>1.044702940205865</v>
       </c>
       <c r="K24">
-        <v>1.068888183516383</v>
+        <v>1.044296036741279</v>
       </c>
       <c r="L24">
-        <v>1.087362238969823</v>
+        <v>1.048942307930993</v>
       </c>
       <c r="M24">
-        <v>1.093316745263681</v>
+        <v>1.052407048643341</v>
       </c>
       <c r="N24">
-        <v>1.078355254252962</v>
+        <v>1.04618653821006</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.073236889090056</v>
+        <v>1.030832027471082</v>
       </c>
       <c r="D25">
-        <v>1.067422943145514</v>
+        <v>1.040538893168403</v>
       </c>
       <c r="E25">
-        <v>1.08650159804454</v>
+        <v>1.047796772204602</v>
       </c>
       <c r="F25">
-        <v>1.092578856391844</v>
+        <v>1.051774721282798</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055948613660119</v>
+        <v>1.056023040854097</v>
       </c>
       <c r="J25">
-        <v>1.078613318467201</v>
+        <v>1.054364530029723</v>
       </c>
       <c r="K25">
-        <v>1.070379297962014</v>
+        <v>1.052538879081764</v>
       </c>
       <c r="L25">
-        <v>1.089402871650172</v>
+        <v>1.059695798146215</v>
       </c>
       <c r="M25">
-        <v>1.095463022936175</v>
+        <v>1.063619156759102</v>
       </c>
       <c r="N25">
-        <v>1.080145073098101</v>
+        <v>1.055861848599667</v>
       </c>
     </row>
   </sheetData>
